--- a/migforecasting/clustering/avg agestruct.xlsx
+++ b/migforecasting/clustering/avg agestruct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>oktmo</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>anti-garbage</t>
+  </si>
+  <si>
+    <t>ethnic</t>
   </si>
 </sst>
 </file>
@@ -100,6 +103,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -410,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E4" sqref="E4:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,6 +594,118 @@
         <v>5.5296666666666661E-2</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.6794999999999998E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.8865000000000001E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.3040000000000004E-2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.6795000000000003E-2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.498000000000001E-2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7.8550000000000009E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7.5250000000000011E-2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>6.823499999999999E-2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>6.7674999999999999E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.15275</v>
+      </c>
+      <c r="P4" s="2">
+        <v>8.8650000000000007E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>8.1320000000000003E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>5.9730000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.0020000000000004E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6.225E-2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>4.8189999999999997E-2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4.8930000000000001E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7.4645000000000003E-2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9.1124999999999998E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>8.448E-2</v>
+      </c>
+      <c r="M5" s="2">
+        <v>7.4749999999999997E-2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>6.9349999999999995E-2</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.14055000000000001</v>
+      </c>
+      <c r="P5" s="2">
+        <v>8.1500000000000003E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6.5964999999999996E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4.351E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/avg agestruct.xlsx
+++ b/migforecasting/clustering/avg agestruct.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>oktmo</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>ethnic</t>
+  </si>
+  <si>
+    <t>anti-industrial</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:R5"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +709,118 @@
         <v>4.351E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.4700000000000008E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.6755000000000004E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>7.2770000000000001E-2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>5.1635E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5.3030000000000001E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4.3840000000000004E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>7.1330000000000005E-2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.6484999999999989E-2</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6.4129999999999993E-2</v>
+      </c>
+      <c r="N6" s="2">
+        <v>6.0264999999999999E-2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.14635000000000001</v>
+      </c>
+      <c r="P6" s="2">
+        <v>8.7889999999999996E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>6.1100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.7019999999999996E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.9080000000000011E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>7.578E-2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5.4855000000000001E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>5.4855000000000001E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6.8769999999999998E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8.702E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>7.2995000000000004E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>6.1249999999999999E-2</v>
+      </c>
+      <c r="N7" s="2">
+        <v>5.9909999999999998E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.13055</v>
+      </c>
+      <c r="P7" s="2">
+        <v>7.7984999999999999E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>6.7275000000000001E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4.274E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/migforecasting/clustering/avg agestruct.xlsx
+++ b/migforecasting/clustering/avg agestruct.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,46 +611,46 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>5.6794999999999998E-2</v>
+        <v>5.5510000000000004E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>5.8865000000000001E-2</v>
+        <v>6.3913333333333336E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>5.3040000000000004E-2</v>
+        <v>5.9896666666666674E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>4.7399999999999998E-2</v>
+        <v>5.0610000000000009E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>4.6795000000000003E-2</v>
+        <v>4.845E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>6.498000000000001E-2</v>
+        <v>5.7443333333333346E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>7.8550000000000009E-2</v>
+        <v>7.3540000000000008E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>7.5250000000000011E-2</v>
+        <v>7.7033333333333329E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>6.823499999999999E-2</v>
+        <v>7.3513333333333333E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>6.7674999999999999E-2</v>
+        <v>7.2149999999999992E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.15275</v>
+        <v>0.13901666666666668</v>
       </c>
       <c r="P4" s="2">
-        <v>8.8650000000000007E-2</v>
+        <v>7.912000000000001E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>8.1320000000000003E-2</v>
+        <v>8.3376666666666654E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>5.9730000000000005E-2</v>
+        <v>6.6419999999999993E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>6.0020000000000004E-2</v>
+        <v>6.0533333333333328E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>6.225E-2</v>
+        <v>7.2243333333333326E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>5.4699999999999999E-2</v>
+        <v>6.7513333333333328E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>4.8189999999999997E-2</v>
+        <v>5.4066666666666659E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>4.8930000000000001E-2</v>
+        <v>4.281666666666667E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>7.4645000000000003E-2</v>
+        <v>6.3843333333333335E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>9.1124999999999998E-2</v>
+        <v>8.8016666666666674E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>8.448E-2</v>
+        <v>8.5780000000000009E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>7.4749999999999997E-2</v>
+        <v>7.513333333333333E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>6.9349999999999995E-2</v>
+        <v>7.1366666666666675E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.14055000000000001</v>
+        <v>0.12809999999999999</v>
       </c>
       <c r="P5" s="2">
-        <v>8.1500000000000003E-2</v>
+        <v>7.2496666666666668E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>6.5964999999999996E-2</v>
+        <v>6.8273333333333339E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>4.351E-2</v>
+        <v>4.9779999999999991E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">

--- a/migforecasting/clustering/avg agestruct.xlsx
+++ b/migforecasting/clustering/avg agestruct.xlsx
@@ -421,7 +421,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,46 +611,46 @@
         <v>1</v>
       </c>
       <c r="E4" s="2">
-        <v>5.5510000000000004E-2</v>
+        <v>5.5900000000000005E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>6.3913333333333336E-2</v>
+        <v>6.0554999999999998E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>5.9896666666666674E-2</v>
+        <v>5.5397500000000002E-2</v>
       </c>
       <c r="H4" s="2">
-        <v>5.0610000000000009E-2</v>
+        <v>4.7875000000000001E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>4.845E-2</v>
+        <v>4.8177499999999998E-2</v>
       </c>
       <c r="J4" s="2">
-        <v>5.7443333333333346E-2</v>
+        <v>6.3257500000000008E-2</v>
       </c>
       <c r="K4" s="2">
-        <v>7.3540000000000008E-2</v>
+        <v>7.430500000000001E-2</v>
       </c>
       <c r="L4" s="2">
-        <v>7.7033333333333329E-2</v>
+        <v>7.5774999999999995E-2</v>
       </c>
       <c r="M4" s="2">
-        <v>7.3513333333333333E-2</v>
+        <v>7.0692500000000005E-2</v>
       </c>
       <c r="N4" s="2">
-        <v>7.2149999999999992E-2</v>
+        <v>7.3762499999999995E-2</v>
       </c>
       <c r="O4" s="2">
-        <v>0.13901666666666668</v>
+        <v>0.14961250000000001</v>
       </c>
       <c r="P4" s="2">
-        <v>7.912000000000001E-2</v>
+        <v>8.2990000000000008E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>8.3376666666666654E-2</v>
+        <v>8.2707499999999989E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>6.6419999999999993E-2</v>
+        <v>5.9014999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="E5" s="2">
-        <v>6.0533333333333328E-2</v>
+        <v>6.0964999999999998E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>7.2243333333333326E-2</v>
+        <v>6.7565E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>6.7513333333333328E-2</v>
+        <v>6.2820000000000001E-2</v>
       </c>
       <c r="H5" s="2">
-        <v>5.4066666666666659E-2</v>
+        <v>5.1589999999999997E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>4.281666666666667E-2</v>
+        <v>4.8225000000000004E-2</v>
       </c>
       <c r="J5" s="2">
-        <v>6.3843333333333335E-2</v>
+        <v>7.3307499999999998E-2</v>
       </c>
       <c r="K5" s="2">
-        <v>8.8016666666666674E-2</v>
+        <v>8.7537500000000004E-2</v>
       </c>
       <c r="L5" s="2">
-        <v>8.5780000000000009E-2</v>
+        <v>8.3150000000000002E-2</v>
       </c>
       <c r="M5" s="2">
-        <v>7.513333333333333E-2</v>
+        <v>7.2450000000000001E-2</v>
       </c>
       <c r="N5" s="2">
-        <v>7.1366666666666675E-2</v>
+        <v>7.0425000000000001E-2</v>
       </c>
       <c r="O5" s="2">
-        <v>0.12809999999999999</v>
+        <v>0.13577499999999998</v>
       </c>
       <c r="P5" s="2">
-        <v>7.2496666666666668E-2</v>
+        <v>7.4172500000000002E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>6.8273333333333339E-2</v>
+        <v>6.7280000000000006E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>4.9779999999999991E-2</v>
+        <v>4.4697499999999994E-2</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
